--- a/frontend/public/template.xlsx
+++ b/frontend/public/template.xlsx
@@ -14,48 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>father_full_name</t>
-  </si>
-  <si>
-    <t>father_email</t>
-  </si>
-  <si>
-    <t>father_phone</t>
-  </si>
-  <si>
-    <t>mother_full_name</t>
-  </si>
-  <si>
-    <t>mother_email</t>
-  </si>
-  <si>
-    <t>mother_phone</t>
-  </si>
-  <si>
-    <t>student_email</t>
-  </si>
-  <si>
-    <t>surname</t>
+    <t>email</t>
   </si>
   <si>
     <t>first_name</t>
   </si>
   <si>
-    <t>other_names</t>
+    <t>last_name</t>
   </si>
   <si>
     <t>gender</t>
   </si>
   <si>
-    <t>registration_number</t>
-  </si>
-  <si>
     <t>nationality</t>
-  </si>
-  <si>
-    <t>date_of_birth</t>
   </si>
   <si>
     <t>blood_group</t>
@@ -76,9 +49,6 @@
     <t>zip_or_lga</t>
   </si>
   <si>
-    <t>town_of_origin</t>
-  </si>
-  <si>
     <t>permanent_address</t>
   </si>
   <si>
@@ -90,10 +60,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -111,9 +81,115 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,122 +203,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,31 +233,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,145 +401,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,7 +455,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,7 +473,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,21 +489,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,163 +519,169 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="8" applyAlignment="1">
       <alignment vertical="center"/>
@@ -719,7 +689,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1066,40 +1037,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.4444444444444" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="20.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="26.1111111111111" customWidth="1"/>
-    <col min="5" max="5" width="19.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="19.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="15.8888888888889" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="15.6666666666667" customWidth="1"/>
-    <col min="12" max="12" width="23.5555555555556" customWidth="1"/>
-    <col min="13" max="13" width="16.7777777777778" customWidth="1"/>
-    <col min="14" max="14" width="19" customWidth="1"/>
-    <col min="15" max="15" width="16.7777777777778" customWidth="1"/>
-    <col min="16" max="16" width="27.8888888888889" customWidth="1"/>
-    <col min="17" max="17" width="17" customWidth="1"/>
-    <col min="18" max="18" width="19" customWidth="1"/>
-    <col min="19" max="19" width="21" customWidth="1"/>
-    <col min="20" max="20" width="17.7777777777778" customWidth="1"/>
-    <col min="21" max="21" width="21.3333333333333" customWidth="1"/>
-    <col min="22" max="22" width="29" customWidth="1"/>
-    <col min="23" max="23" width="21.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="19.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="15.6666666666667" customWidth="1"/>
+    <col min="5" max="6" width="16.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="27.8888888888889" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="21" customWidth="1"/>
+    <col min="11" max="11" width="17.7777777777778" customWidth="1"/>
+    <col min="12" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="21.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="30" customHeight="1" spans="1:23">
+    <row r="1" s="1" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1139,39 +1099,166 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="2" spans="14:14">
+    <row r="2" spans="1:14">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
       <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="4"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
